--- a/Logiscool/Időnyilvántartás - Március2025.xlsx
+++ b/Logiscool/Időnyilvántartás - Március2025.xlsx
@@ -309,124 +309,128 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="8" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="3" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="8" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -683,939 +687,943 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="6" style="0" width="3.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="6" style="1" width="3.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="22.1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="5" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="8" t="n">
         <v>45717</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9" t="n">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10" t="n">
         <f aca="false">D3-C3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="13" t="n">
+      <c r="B4" s="14" t="n">
         <v>45718</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15" t="n">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16" t="n">
         <f aca="false">D4-C4</f>
         <v>0</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="17" t="n">
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="18" t="n">
         <f aca="false">SUM(E3:E4)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="8" t="n">
         <v>45719</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9" t="n">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10" t="n">
         <f aca="false">D5-C5</f>
         <v>0</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="7" t="n">
+      <c r="B6" s="8" t="n">
         <v>45720</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9" t="n">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10" t="n">
         <f aca="false">D6-C6</f>
         <v>0</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="7" t="n">
+      <c r="B7" s="8" t="n">
         <v>45721</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9" t="n">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10" t="n">
         <f aca="false">D7-C7</f>
         <v>0</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="7" t="n">
+      <c r="B8" s="8" t="n">
         <v>45722</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="9" t="n">
         <v>0.708333333333333</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="9" t="n">
         <v>0.774305555555556</v>
       </c>
-      <c r="E8" s="9" t="n">
+      <c r="E8" s="10" t="n">
         <f aca="false">D8-C8</f>
         <v>0.0659722222222222</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="7" t="n">
+      <c r="B9" s="8" t="n">
         <v>45723</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9" t="n">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10" t="n">
         <f aca="false">D9-C9</f>
         <v>0</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="n">
+      <c r="B10" s="8" t="n">
         <v>45724</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9" t="n">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10" t="n">
         <f aca="false">D10-C10</f>
         <v>0</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="2"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="n">
+      <c r="B11" s="14" t="n">
         <v>45725</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15" t="n">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16" t="n">
         <f aca="false">D11-C11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="17" t="n">
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="18" t="n">
         <f aca="false">SUM(E5:E11)</f>
         <v>0.0659722222222222</v>
       </c>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="2"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="n">
+      <c r="B12" s="8" t="n">
         <v>45726</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9" t="n">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10" t="n">
         <f aca="false">D12-C12</f>
         <v>0</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="n">
+      <c r="B13" s="8" t="n">
         <v>45727</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9" t="n">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10" t="n">
         <f aca="false">D13-C13</f>
         <v>0</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="n">
+      <c r="B14" s="8" t="n">
         <v>45728</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9" t="n">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10" t="n">
         <f aca="false">D14-C14</f>
         <v>0</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="7" t="n">
+      <c r="B15" s="8" t="n">
         <v>45729</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9" t="n">
+      <c r="C15" s="9" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D15" s="9" t="n">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E15" s="10" t="n">
         <f aca="false">D15-C15</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+        <v>0.0625</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="7" t="n">
+      <c r="B16" s="8" t="n">
         <v>45730</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9" t="n">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10" t="n">
         <f aca="false">D16-C16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="7" t="n">
+      <c r="B17" s="8" t="n">
         <v>45731</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9" t="n">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10" t="n">
         <f aca="false">D17-C17</f>
         <v>0</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="2"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="13" t="n">
+      <c r="B18" s="14" t="n">
         <v>45732</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15" t="n">
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16" t="n">
         <f aca="false">D18-C18</f>
         <v>0</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="17" t="n">
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="18" t="n">
         <f aca="false">SUM(E12:E18)</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="2"/>
+        <v>0.0625</v>
+      </c>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="7" t="n">
+      <c r="B19" s="8" t="n">
         <v>45733</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9" t="n">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10" t="n">
         <f aca="false">D19-C19</f>
         <v>0</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="2"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="7" t="n">
+      <c r="B20" s="8" t="n">
         <v>45734</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9" t="n">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10" t="n">
         <f aca="false">D20-C20</f>
         <v>0</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="7" t="n">
+      <c r="B21" s="8" t="n">
         <v>45735</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9" t="n">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10" t="n">
         <f aca="false">D21-C21</f>
         <v>0</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="7" t="n">
+      <c r="B22" s="8" t="n">
         <v>45736</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9" t="n">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10" t="n">
         <f aca="false">D22-C22</f>
         <v>0</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="7" t="n">
+      <c r="B23" s="8" t="n">
         <v>45737</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9" t="n">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10" t="n">
         <f aca="false">D23-C23</f>
         <v>0</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="7" t="n">
+      <c r="B24" s="8" t="n">
         <v>45738</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9" t="n">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10" t="n">
         <f aca="false">D24-C24</f>
         <v>0</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="13" t="n">
+      <c r="B25" s="14" t="n">
         <v>45739</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15" t="n">
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="16" t="n">
         <f aca="false">D25-C25</f>
         <v>0</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="17" t="n">
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="18" t="n">
         <f aca="false">SUM(E19:E25)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="7" t="n">
+      <c r="B26" s="8" t="n">
         <v>45740</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="9" t="n">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10" t="n">
         <f aca="false">D26-C26</f>
         <v>0</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="7" t="n">
+      <c r="B27" s="8" t="n">
         <v>45741</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9" t="n">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10" t="n">
         <f aca="false">D27-C27</f>
         <v>0</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="7" t="n">
+      <c r="B28" s="8" t="n">
         <v>45742</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9" t="n">
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10" t="n">
         <f aca="false">D28-C28</f>
         <v>0</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="7" t="n">
+      <c r="B29" s="8" t="n">
         <v>45743</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="9" t="n">
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10" t="n">
         <f aca="false">D29-C29</f>
         <v>0</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="7" t="n">
+      <c r="B30" s="8" t="n">
         <v>45744</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="9" t="n">
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10" t="n">
         <f aca="false">D30-C30</f>
         <v>0</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="7" t="n">
+      <c r="B31" s="8" t="n">
         <v>45745</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="9" t="n">
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10" t="n">
         <f aca="false">D31-C31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="13" t="n">
+      <c r="B32" s="14" t="n">
         <v>45746</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="15" t="n">
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="16" t="n">
         <f aca="false">D32-C32</f>
         <v>0</v>
       </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="17" t="n">
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="18" t="n">
         <f aca="false">SUM(E26:E32)</f>
         <v>0</v>
       </c>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="7" t="n">
+      <c r="B33" s="8" t="n">
         <v>45747</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="9" t="n">
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10" t="n">
         <f aca="false">D33-C33</f>
         <v>0</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="10" t="n">
+      <c r="A34" s="7"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="11" t="n">
         <f aca="false">COUNTIF(F3:F32,"x")*$M$34</f>
         <v>0</v>
       </c>
-      <c r="G34" s="10" t="n">
+      <c r="G34" s="11" t="n">
         <f aca="false">COUNTIF(G3:G32,"x")*$M$34</f>
         <v>0</v>
       </c>
-      <c r="H34" s="10" t="n">
+      <c r="H34" s="11" t="n">
         <f aca="false">COUNTIF(H3:H32,"x")*$M$34</f>
         <v>0</v>
       </c>
-      <c r="I34" s="10" t="n">
+      <c r="I34" s="11" t="n">
         <f aca="false">COUNTIF(I3:I32,"x")*$M$34</f>
         <v>0</v>
       </c>
-      <c r="J34" s="10" t="n">
+      <c r="J34" s="11" t="n">
         <f aca="false">COUNTIF(J3:J32,"x")*$M$34</f>
         <v>0</v>
       </c>
-      <c r="K34" s="20"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="18" t="n">
+      <c r="K34" s="21"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="19" t="n">
         <v>0.0208333333333333</v>
       </c>
-      <c r="N34" s="2"/>
+      <c r="N34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="22" t="n">
+      <c r="B35" s="8"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23" t="n">
         <f aca="false">SUM(F34:J34)</f>
         <v>0</v>
       </c>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="2"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="24" t="n">
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="25" t="n">
         <f aca="false">SUM(E3:E35)</f>
-        <v>0.0659722222222222</v>
-      </c>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="2"/>
+        <v>0.128472222222222</v>
+      </c>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Logiscool/Időnyilvántartás - Március2025.xlsx
+++ b/Logiscool/Időnyilvántartás - Március2025.xlsx
@@ -687,7 +687,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1210,11 +1210,15 @@
       <c r="B22" s="8" t="n">
         <v>45736</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="C22" s="9" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0.777777777777778</v>
+      </c>
       <c r="E22" s="10" t="n">
         <f aca="false">D22-C22</f>
-        <v>0</v>
+        <v>0.0694444444444445</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -1292,7 +1296,7 @@
       <c r="J25" s="15"/>
       <c r="K25" s="18" t="n">
         <f aca="false">SUM(E19:E25)</f>
-        <v>0</v>
+        <v>0.0694444444444445</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -1547,7 +1551,7 @@
       <c r="D36" s="24"/>
       <c r="E36" s="25" t="n">
         <f aca="false">SUM(E3:E35)</f>
-        <v>0.128472222222222</v>
+        <v>0.197916666666667</v>
       </c>
       <c r="F36" s="26"/>
       <c r="G36" s="26"/>

--- a/Logiscool/Időnyilvántartás - Március2025.xlsx
+++ b/Logiscool/Időnyilvántartás - Március2025.xlsx
@@ -687,7 +687,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24:F25"/>
+      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1378,11 +1378,15 @@
       <c r="B29" s="8" t="n">
         <v>45743</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
+      <c r="C29" s="9" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D29" s="9" t="n">
+        <v>0.774305555555556</v>
+      </c>
       <c r="E29" s="10" t="n">
         <f aca="false">D29-C29</f>
-        <v>0</v>
+        <v>0.0659722222222222</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -1460,7 +1464,7 @@
       <c r="J32" s="15"/>
       <c r="K32" s="18" t="n">
         <f aca="false">SUM(E26:E32)</f>
-        <v>0</v>
+        <v>0.0659722222222222</v>
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -1551,7 +1555,7 @@
       <c r="D36" s="24"/>
       <c r="E36" s="25" t="n">
         <f aca="false">SUM(E3:E35)</f>
-        <v>0.197916666666667</v>
+        <v>0.263888888888889</v>
       </c>
       <c r="F36" s="26"/>
       <c r="G36" s="26"/>

--- a/Logiscool/Időnyilvántartás - Március2025.xlsx
+++ b/Logiscool/Időnyilvántartás - Március2025.xlsx
@@ -687,7 +687,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
+      <selection pane="topLeft" activeCell="S28" activeCellId="0" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
